--- a/APM files/123817380/123817380 IMPORT 2 Compensation Update.xlsx
+++ b/APM files/123817380/123817380 IMPORT 2 Compensation Update.xlsx
@@ -1,37 +1,313 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\123817380\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C47E87-5B11-4140-AF8D-139A55427DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14715" yWindow="4260" windowWidth="21525" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="84">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Hotel Business Model</t>
+  </si>
+  <si>
+    <t>Compensation Rule Name</t>
+  </si>
+  <si>
+    <t>Compensation Rule ID</t>
+  </si>
+  <si>
+    <t>Default or Exception</t>
+  </si>
+  <si>
+    <t>Compensation Percent</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>34496077</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>MerchantPackage</t>
+  </si>
+  <si>
+    <t>340005379</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>2023_EC_18%</t>
+  </si>
+  <si>
+    <t>340005378</t>
+  </si>
+  <si>
+    <t>57006249</t>
+  </si>
+  <si>
+    <t>380061721</t>
+  </si>
+  <si>
+    <t>57004858</t>
+  </si>
+  <si>
+    <t>2023_EC_18</t>
+  </si>
+  <si>
+    <t>350037447</t>
+  </si>
+  <si>
+    <t>76938671</t>
+  </si>
+  <si>
+    <t>610197316</t>
+  </si>
+  <si>
+    <t>57233207</t>
+  </si>
+  <si>
+    <t>580070869</t>
+  </si>
+  <si>
+    <t>35205420</t>
+  </si>
+  <si>
+    <t>470030098</t>
+  </si>
+  <si>
+    <t>470030097</t>
+  </si>
+  <si>
+    <t>57006055</t>
+  </si>
+  <si>
+    <t>340037571</t>
+  </si>
+  <si>
+    <t>34455647</t>
+  </si>
+  <si>
+    <t>340005308</t>
+  </si>
+  <si>
+    <t>340005307</t>
+  </si>
+  <si>
+    <t>45705012</t>
+  </si>
+  <si>
+    <t>430051332</t>
+  </si>
+  <si>
+    <t>430051331</t>
+  </si>
+  <si>
+    <t>34495993</t>
+  </si>
+  <si>
+    <t>500028341</t>
+  </si>
+  <si>
+    <t>500028340</t>
+  </si>
+  <si>
+    <t>76803599</t>
+  </si>
+  <si>
+    <t>610189922</t>
+  </si>
+  <si>
+    <t>34492483</t>
+  </si>
+  <si>
+    <t>530015722</t>
+  </si>
+  <si>
+    <t>530015721</t>
+  </si>
+  <si>
+    <t>38696330</t>
+  </si>
+  <si>
+    <t>500041764</t>
+  </si>
+  <si>
+    <t>500041763</t>
+  </si>
+  <si>
+    <t>34496130</t>
+  </si>
+  <si>
+    <t>350005381</t>
+  </si>
+  <si>
+    <t>350005380</t>
+  </si>
+  <si>
+    <t>37733570</t>
+  </si>
+  <si>
+    <t>560046827</t>
+  </si>
+  <si>
+    <t>560046826</t>
+  </si>
+  <si>
+    <t>34475656</t>
+  </si>
+  <si>
+    <t>480028294</t>
+  </si>
+  <si>
+    <t>480028293</t>
+  </si>
+  <si>
+    <t>44369505</t>
+  </si>
+  <si>
+    <t>410050840</t>
+  </si>
+  <si>
+    <t>410050174</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>410050173</t>
+  </si>
+  <si>
+    <t>34493307</t>
+  </si>
+  <si>
+    <t>550036381</t>
+  </si>
+  <si>
+    <t>550036380</t>
+  </si>
+  <si>
+    <t>34491386</t>
+  </si>
+  <si>
+    <t>450027554</t>
+  </si>
+  <si>
+    <t>450027553</t>
+  </si>
+  <si>
+    <t>34496167</t>
+  </si>
+  <si>
+    <t>460005654</t>
+  </si>
+  <si>
+    <t>460005653</t>
+  </si>
+  <si>
+    <t>34492695</t>
+  </si>
+  <si>
+    <t>440028707</t>
+  </si>
+  <si>
+    <t>440028706</t>
+  </si>
+  <si>
+    <t>35200413</t>
+  </si>
+  <si>
+    <t>400029077</t>
+  </si>
+  <si>
+    <t>400029076</t>
+  </si>
+  <si>
+    <t>44369067</t>
+  </si>
+  <si>
+    <t>400049925</t>
+  </si>
+  <si>
+    <t>400049113</t>
+  </si>
+  <si>
+    <t>400049112</t>
+  </si>
+  <si>
+    <t>400049111</t>
+  </si>
+  <si>
+    <t>34491751</t>
+  </si>
+  <si>
+    <t>400027618</t>
+  </si>
+  <si>
+    <t>400027617</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +322,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,70 +646,1081 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel Business Model</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Compensation Rule Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Compensation Rule ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Default or Exception</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Compensation Percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>123</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
